--- a/DotFramework/Config/test.xlsx
+++ b/DotFramework/Config/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotGameProject\DotGameScripts\DotFramework\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF2FACA-76AC-4CA3-BEAA-284261145C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4D4E6C-07BA-49D7-B1B3-A66CC2E545F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>#ETD#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,18 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.0f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BoolField</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.0f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,10 +213,6 @@
   </si>
   <si>
     <t>[19,18,17,16,15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.0f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -576,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,19 +587,19 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -639,19 +619,19 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -671,19 +651,19 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -709,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
@@ -728,8 +708,8 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -751,23 +731,23 @@
       <c r="E7">
         <v>111</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
+      <c r="F7">
+        <v>1.22</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -783,23 +763,23 @@
       <c r="E8">
         <v>222</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
+      <c r="F8">
+        <v>2.33</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -818,23 +798,23 @@
       <c r="E9">
         <v>333</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9">
+        <v>3.44</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -850,23 +830,23 @@
       <c r="E10">
         <v>4444</v>
       </c>
-      <c r="F10" t="s">
-        <v>51</v>
+      <c r="F10">
+        <v>4.55</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -880,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3761D3-D181-4736-BCDB-472BFE916992}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -911,19 +891,19 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -943,19 +923,19 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -975,19 +955,19 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1013,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
@@ -1032,8 +1012,8 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1055,23 +1035,23 @@
       <c r="E7">
         <v>111</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
+      <c r="F7">
+        <v>1.1200000000000001</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1087,23 +1067,23 @@
       <c r="E8">
         <v>222</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
+      <c r="F8">
+        <v>2.2229999999999999</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">

--- a/DotFramework/Config/test.xlsx
+++ b/DotFramework/Config/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotGameProject\DotGameScripts\DotFramework\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4D4E6C-07BA-49D7-B1B3-A66CC2E545F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44210664-123D-4064-B1A8-8254F8E80AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -192,14 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1,2,3,4,5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9,8,7,6,5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[19,18,17,16,15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,7 +216,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[119,118,117,116,115]</t>
+    <t>[1;2;3;4;5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9;8;7;6;5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[19;18;17;16;15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[119;118;117;116;115]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,7 +747,7 @@
         <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -779,7 +779,7 @@
         <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -805,16 +805,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
         <v>43</v>
       </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
         <v>50</v>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3761D3-D181-4736-BCDB-472BFE916992}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1051,7 @@
         <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1083,7 +1083,7 @@
         <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1094,5 +1094,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>